--- a/filed.xlsx
+++ b/filed.xlsx
@@ -1,380 +1,299 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm_project\Visualization-of-agricultural-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D6AA0B-2C5A-4A8B-AC0A-595614B99441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300E871E-FB87-44CB-A763-389BE42F0F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="7500" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="filed" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>博创平台字段名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>字段名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>字段说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数据类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jobFlag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作业标识(数字编码)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>totalMileage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>总里程(km)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>double</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>（6,3）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CANspeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CAN速度(km/h)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>（3,3）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>totalFuelConsumption</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>累计油耗(L)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>（2,2）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jobVehicleStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作业车辆状态（数字编码）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>numOfUsedSatellites</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>使用卫星数(个)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>numOfVisibleSatellites</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>可视卫星数(个)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GPSLat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>经度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>（3,7）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GPSLon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>纬度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>did</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>did</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设备号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jobDuration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作业时长(分)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(10,3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>totalWorkTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>累计工作时间(s)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cropMoisureContent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作物含水率(4300)(%)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(1,2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>altitude</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>海拔高度(米)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(3,3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GPSDateTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GPS时间(yyyy-MM-dd HH:mm:ss)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>direction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>方向(度)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>drivingMileage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>行驶里程（km）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vehicleTypeCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>车型代码（数字编码）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>areaOutput</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>亩产量（kg）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(5,2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>atmosphericPressure</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大气压力(kpa)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(2,2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>horizontalDilutionOfPrecision</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>水平精度因子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fuelConsumptionRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>燃料消耗率(kg/100km)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fuelConsumption</t>
   </si>
   <si>
     <t>燃油使用量(L)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>（4,2）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GPSModuleStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GPS模块状态（数字编码）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cropDamageRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作物破损率(4299)(%)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>（1,2）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>realtimeArea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>实时亩数(亩)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>（5,2）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GPSLocationStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>定位状态（数字编码）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>gpsSpeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GPS速度(km/h)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>airTemperature</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大气温度(℃)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>engineWorkTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>发动机工作时间（s）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>workTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工作时间(H)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentBlockNumber</t>
+  </si>
+  <si>
+    <t>当前地块号</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>FALSE，副键</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,13 +313,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -713,19 +625,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="25.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -748,138 +661,141 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>4031</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3014</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4034</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4031</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2205</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3040</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4023</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4030</v>
+        <v>4023</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>3015</v>
+        <v>4030</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -890,36 +806,36 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>2603</v>
+        <v>3016</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -929,66 +845,63 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
+      <c r="A11" s="1">
+        <v>2602</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <v>3040</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>4033</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>4016</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -999,16 +912,16 @@
         <v>4300</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1016,356 +929,379 @@
         <v>3013</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>3012</v>
+        <v>4180</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>4180</v>
+        <v>4224</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>3004</v>
+      <c r="A19" s="1">
+        <v>4109</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>4224</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>4109</v>
+        <v>4014</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>4014</v>
+        <v>2403</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>2403</v>
+      <c r="A23" s="2">
+        <v>4137</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>4137</v>
+        <v>3019</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>3019</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
+      <c r="A25" s="1">
+        <v>4299</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4299</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>4299</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4299</v>
+      <c r="A26" s="2">
+        <v>4032</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>4032</v>
+        <v>2601</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>2601</v>
+        <v>2204</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>2204</v>
+        <v>4245</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>4245</v>
+        <v>4163</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>4163</v>
+        <v>4118</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>2205</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>4016</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F33" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>3004</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>4118</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
+      <c r="F34" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
